--- a/3_데이터 가공/kospi_ROE_11_upper.xlsx
+++ b/3_데이터 가공/kospi_ROE_11_upper.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\HK_Project\3_데이터 가공\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE2ABE84-01F3-4B43-9EB8-3A7F3E9A4CCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="5820" yWindow="468" windowWidth="15444" windowHeight="11604" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>종목명</t>
   </si>
@@ -149,17 +155,21 @@
   </si>
   <si>
     <t>244920</t>
+  </si>
+  <si>
+    <t>산업분류</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -167,8 +177,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -214,15 +231,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -264,7 +289,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -296,9 +321,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -330,6 +373,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -505,14 +566,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -537,8 +600,11 @@
       <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>21</v>
       </c>
@@ -558,16 +624,16 @@
         <v>20.3</v>
       </c>
       <c r="G2">
-        <v>17.9</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="H2">
         <v>16.7</v>
       </c>
       <c r="I2">
-        <v>19.56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>19.559999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>36</v>
       </c>
@@ -578,10 +644,10 @@
         <v>25</v>
       </c>
       <c r="D3">
-        <v>19.1</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="E3">
-        <v>16.4</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="F3">
         <v>14.7</v>
@@ -596,7 +662,7 @@
         <v>16.54</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>62</v>
       </c>
@@ -610,7 +676,7 @@
         <v>30.1</v>
       </c>
       <c r="E4">
-        <v>33.8</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="F4">
         <v>30.7</v>
@@ -625,7 +691,7 @@
         <v>31.34</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>64</v>
       </c>
@@ -654,7 +720,7 @@
         <v>24.74</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>66</v>
       </c>
@@ -665,7 +731,7 @@
         <v>28</v>
       </c>
       <c r="D6">
-        <v>19.4</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="E6">
         <v>13.9</v>
@@ -674,16 +740,16 @@
         <v>15.3</v>
       </c>
       <c r="G6">
-        <v>16.1</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="H6">
         <v>22.5</v>
       </c>
       <c r="I6">
-        <v>17.44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>17.440000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>67</v>
       </c>
@@ -703,7 +769,7 @@
         <v>12.8</v>
       </c>
       <c r="G7">
-        <v>16.9</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="H7">
         <v>24.4</v>
@@ -712,7 +778,7 @@
         <v>17.64</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>68</v>
       </c>
@@ -729,7 +795,7 @@
         <v>13</v>
       </c>
       <c r="F8">
-        <v>18.1</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="G8">
         <v>16.3</v>
@@ -738,10 +804,10 @@
         <v>30.7</v>
       </c>
       <c r="I8">
-        <v>18.44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>18.440000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>92</v>
       </c>
@@ -755,10 +821,10 @@
         <v>27.6</v>
       </c>
       <c r="E9">
-        <v>17.1</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="F9">
-        <v>17.4</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="G9">
         <v>23.1</v>
@@ -770,7 +836,7 @@
         <v>23.04</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>112</v>
       </c>
@@ -790,16 +856,16 @@
         <v>15.1</v>
       </c>
       <c r="G10">
-        <v>16.1</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="H10">
-        <v>17.4</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="I10">
         <v>15.88</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>114</v>
       </c>
@@ -813,7 +879,7 @@
         <v>18</v>
       </c>
       <c r="E11">
-        <v>20.1</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="F11">
         <v>20.9</v>
@@ -828,7 +894,7 @@
         <v>22.2</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>156</v>
       </c>
@@ -857,7 +923,7 @@
         <v>18.66</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>185</v>
       </c>
@@ -877,16 +943,16 @@
         <v>25.1</v>
       </c>
       <c r="G13">
-        <v>16.6</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="H13">
         <v>204.3</v>
       </c>
       <c r="I13">
-        <v>61.26000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>61.260000000000012</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>206</v>
       </c>
@@ -915,7 +981,7 @@
         <v>16.84</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>250</v>
       </c>
@@ -941,10 +1007,10 @@
         <v>14.3</v>
       </c>
       <c r="I15">
-        <v>18.1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>265</v>
       </c>
@@ -973,7 +1039,7 @@
         <v>21.52</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>304</v>
       </c>
@@ -999,10 +1065,10 @@
         <v>13.2</v>
       </c>
       <c r="I17">
-        <v>18.24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>18.239999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>321</v>
       </c>
@@ -1013,7 +1079,7 @@
         <v>40</v>
       </c>
       <c r="D18">
-        <v>20.4</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="E18">
         <v>16.5</v>
@@ -1028,10 +1094,10 @@
         <v>20.6</v>
       </c>
       <c r="I18">
-        <v>18.94</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>18.940000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>372</v>
       </c>
@@ -1060,7 +1126,7 @@
         <v>24.64</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>381</v>
       </c>
@@ -1077,7 +1143,7 @@
         <v>24.5</v>
       </c>
       <c r="F20">
-        <v>16.9</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="G20">
         <v>18.7</v>
@@ -1086,10 +1152,10 @@
         <v>20.3</v>
       </c>
       <c r="I20">
-        <v>19.42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>19.420000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>503</v>
       </c>
@@ -1118,7 +1184,7 @@
         <v>19.96</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>523</v>
       </c>
@@ -1148,6 +1214,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>